--- a/Logging_SODERMANLANDS_LAN/Logging_ESKILSTUNA/artfynd/A 31987-2023.xlsx
+++ b/Logging_SODERMANLANDS_LAN/Logging_ESKILSTUNA/artfynd/A 31987-2023.xlsx
@@ -683,7 +683,7 @@
         <v>110636673</v>
       </c>
       <c r="B2" t="n">
-        <v>44330</v>
+        <v>44333</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
